--- a/Fiorella_Data_Excel/Ventas_Departamentales.xlsx
+++ b/Fiorella_Data_Excel/Ventas_Departamentales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Desafio1_DMD_EduardoLopez\Fiorella_Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Lopez\Documents\GitHub\desafio1_DMD_EduardoLopez\Fiorella_Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71102435-15BA-4E94-93CE-5A7BF3CCCABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3BEB88-5FCE-4D1C-AFFE-516F88A5C172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,13 +30,13 @@
     <t>Departamento</t>
   </si>
   <si>
-    <t>Item1</t>
+    <t>Producto1</t>
   </si>
   <si>
-    <t>Item2</t>
+    <t>Producto2</t>
   </si>
   <si>
-    <t>VecesVendidas</t>
+    <t>CantidadCompras</t>
   </si>
 </sst>
 </file>
@@ -362,14 +362,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -377,7 +377,7 @@
     <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row spans="1:4" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,8 +391,6014 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row spans="1:4" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="D6" s="1"/>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B145" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C145" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="D145" s="0" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C146" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D146" s="0" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B147" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C147" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D147" s="0" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B148" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C148" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D148" s="0" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C149" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D149" s="0" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B150" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C150" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D150" s="0" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C151" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D151" s="0" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B152" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C152" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D152" s="0" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C153" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D153" s="0" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="154">
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C154" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D154" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C155" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D155" s="0" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="156">
+      <c r="A156" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B156" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C156" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D156" s="0" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="157">
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C157" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D157" s="0" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="158">
+      <c r="A158" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B158" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C158" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D158" s="0" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="159">
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C159" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D159" s="0" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="160">
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B160" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C160" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D160" s="0" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C161" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="D161" s="0" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B162" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C162" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D162" s="0" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="163">
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C163" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D163" s="0" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B164" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C164" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D164" s="0" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C165" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D165" s="0" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B166" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C166" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D166" s="0" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C167" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D167" s="0" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C168" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D168" s="0" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C169" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D169" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B170" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C170" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D170" s="0" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="171">
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B171" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C171" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D171" s="0" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="172">
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B172" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C172" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D172" s="0" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="173">
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B173" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C173" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="D173" s="0" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="174">
+      <c r="A174" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B174" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C174" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D174" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="175">
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C175" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D175" s="0" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="176">
+      <c r="A176" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B176" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C176" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="D176" s="0" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="177">
+      <c r="A177" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B177" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C177" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D177" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="178">
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C178" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D178" s="0" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="179">
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B179" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C179" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D179" s="0" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B180" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C180" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D180" s="0" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="181">
+      <c r="A181" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B181" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C181" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D181" s="0" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="182">
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B182" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C182" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="D182" s="0" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="183">
+      <c r="A183" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B183" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C183" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D183" s="0" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="184">
+      <c r="A184" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B184" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C184" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D184" s="0" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B185" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C185" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D185" s="0" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="186">
+      <c r="A186" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B186" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C186" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D186" s="0" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C187" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D187" s="0" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="188">
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C188" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D188" s="0" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C189" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D189" s="0" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B190" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="C190" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D190" s="0" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C191" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D191" s="0" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B192" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C192" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D192" s="0" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C193" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D193" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C194" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="D194" s="0" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C195" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D195" s="0" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B196" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C196" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D196" s="0" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C197" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D197" s="0" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C198" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D198" s="0" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C199" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D199" s="0" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C200" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="D200" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="201">
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B201" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C201" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D201" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="202">
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B202" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C202" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D202" s="0" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="203">
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B203" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C203" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D203" s="0" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="204">
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B204" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C204" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D204" s="0" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="205">
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B205" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D205" s="0" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="206">
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B206" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C206" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D206" s="0" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="207">
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B207" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C207" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D207" s="0" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="208">
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B208" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C208" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D208" s="0" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="209">
+      <c r="A209" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B209" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C209" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D209" s="0" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="210">
+      <c r="A210" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B210" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C210" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D210" s="0" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="211">
+      <c r="A211" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B211" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C211" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D211" s="0" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="212">
+      <c r="A212" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B212" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C212" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D212" s="0" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="213">
+      <c r="A213" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B213" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C213" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D213" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="214">
+      <c r="A214" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B214" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C214" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D214" s="0" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="215">
+      <c r="A215" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B215" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C215" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D215" s="0" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="216">
+      <c r="A216" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B216" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C216" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D216" s="0" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="217">
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B217" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C217" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D217" s="0" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="218">
+      <c r="A218" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B218" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C218" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D218" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="219">
+      <c r="A219" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B219" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C219" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D219" s="0" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="220">
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B220" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C220" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="D220" s="0" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="221">
+      <c r="A221" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B221" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C221" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D221" s="0" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B222" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C222" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="D222" s="0" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="223">
+      <c r="A223" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B223" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C223" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D223" s="0" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="224">
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B224" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C224" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D224" s="0" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="225">
+      <c r="A225" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B225" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C225" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D225" s="0" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="226">
+      <c r="A226" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B226" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C226" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D226" s="0" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="227">
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B227" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C227" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D227" s="0" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="228">
+      <c r="A228" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B228" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C228" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D228" s="0" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="229">
+      <c r="A229" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B229" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C229" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="D229" s="0" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="230">
+      <c r="A230" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B230" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C230" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="D230" s="0" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="231">
+      <c r="A231" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B231" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C231" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D231" s="0" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="232">
+      <c r="A232" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B232" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C232" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D232" s="0" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="233">
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B233" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C233" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="D233" s="0" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="234">
+      <c r="A234" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B234" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C234" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D234" s="0" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B235" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C235" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D235" s="0" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="236">
+      <c r="A236" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B236" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C236" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D236" s="0" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="237">
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B237" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C237" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D237" s="0" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="238">
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B238" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C238" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D238" s="0" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="239">
+      <c r="A239" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B239" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C239" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D239" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="240">
+      <c r="A240" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B240" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C240" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D240" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="241">
+      <c r="A241" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B241" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C241" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D241" s="0" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="242">
+      <c r="A242" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B242" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C242" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D242" s="0" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="243">
+      <c r="A243" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B243" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C243" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D243" s="0" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="244">
+      <c r="A244" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B244" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C244" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D244" s="0" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="245">
+      <c r="A245" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B245" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C245" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D245" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="246">
+      <c r="A246" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B246" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C246" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D246" s="0" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="247">
+      <c r="A247" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B247" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C247" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="D247" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="248">
+      <c r="A248" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B248" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C248" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D248" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="249">
+      <c r="A249" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B249" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C249" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D249" s="0" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="250">
+      <c r="A250" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B250" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C250" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D250" s="0" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="251">
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B251" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C251" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="D251" s="0" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="252">
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B252" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C252" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D252" s="0" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="253">
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B253" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="C253" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D253" s="0" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="254">
+      <c r="A254" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B254" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C254" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D254" s="0" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D255" s="0" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B256" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C256" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D256" s="0" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C257" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D257" s="0" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="258">
+      <c r="A258" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B258" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="C258" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D258" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="259">
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B259" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C259" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D259" s="0" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="260">
+      <c r="A260" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B260" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C260" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D260" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="261">
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B261" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C261" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D261" s="0" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="262">
+      <c r="A262" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B262" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C262" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D262" s="0" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="263">
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B263" s="0" t="inlineStr">
+        <is>
+          <t>Lirios</t>
+        </is>
+      </c>
+      <c r="C263" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D263" s="0" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B264" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C264" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D264" s="0" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="265">
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B265" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C265" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D265" s="0" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B266" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="C266" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D266" s="0" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="267">
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B267" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C267" s="0" t="inlineStr">
+        <is>
+          <t>Orquideas</t>
+        </is>
+      </c>
+      <c r="D267" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="268">
+      <c r="A268" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B268" s="0" t="inlineStr">
+        <is>
+          <t>Globos</t>
+        </is>
+      </c>
+      <c r="C268" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D268" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="269">
+      <c r="A269" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B269" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C269" s="0" t="inlineStr">
+        <is>
+          <t>Liston</t>
+        </is>
+      </c>
+      <c r="D269" s="0" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="270">
+      <c r="A270" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B270" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C270" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D270" s="0" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="271">
+      <c r="A271" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B271" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C271" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D271" s="0" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="272">
+      <c r="A272" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B272" s="0" t="inlineStr">
+        <is>
+          <t>Carmesi</t>
+        </is>
+      </c>
+      <c r="C272" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D272" s="0" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="273">
+      <c r="A273" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B273" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C273" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D273" s="0" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="274">
+      <c r="A274" s="0" t="inlineStr">
+        <is>
+          <t>San Salvador</t>
+        </is>
+      </c>
+      <c r="B274" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="C274" s="0" t="inlineStr">
+        <is>
+          <t>Tarjetas</t>
+        </is>
+      </c>
+      <c r="D274" s="0" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="275">
+      <c r="A275" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B275" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="C275" s="0" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="D275" s="0" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="276">
+      <c r="A276" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B276" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C276" s="0" t="inlineStr">
+        <is>
+          <t>Rosas</t>
+        </is>
+      </c>
+      <c r="D276" s="0" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="277">
+      <c r="A277" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B277" s="0" t="inlineStr">
+        <is>
+          <t>Claveles</t>
+        </is>
+      </c>
+      <c r="C277" s="0" t="inlineStr">
+        <is>
+          <t>Tulipanes</t>
+        </is>
+      </c>
+      <c r="D277" s="0" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="278">
+      <c r="A278" s="0" t="inlineStr">
+        <is>
+          <t>Santa Ana</t>
+        </is>
+      </c>
+      <c r="B278" s="0" t="inlineStr">
+        <is>
+          <t>Girasoles</t>
+        </is>
+      </c>
+      <c r="C278" s="0" t="inlineStr">
+        <is>
+          <t>Macetas</t>
+        </is>
+      </c>
+      <c r="D278" s="0" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="279">
+      <c r="A279" s="0" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B279" s="0" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="C279" s="0" t="inlineStr">
+        <is>
+          <t>Hortensia</t>
+        </is>
+      </c>
+      <c r="D279" s="0" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fiorella_Data_Excel/Ventas_Departamentales.xlsx
+++ b/Fiorella_Data_Excel/Ventas_Departamentales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Lopez\Documents\GitHub\desafio1_DMD_EduardoLopez\Fiorella_Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3BEB88-5FCE-4D1C-AFFE-516F88A5C172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDCFB9A-4A4C-49A7-855C-309DFDB8D856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:D279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +903,7 @@
     <row outlineLevel="0" r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="B30" s="0" t="inlineStr">
@@ -913,19 +913,19 @@
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>Claveles</t>
+          <t>Tarjetas</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>145</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Santa Ana</t>
+          <t>San Miguel</t>
         </is>
       </c>
       <c r="B31" s="0" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>Tarjetas</t>
+          <t>Claveles</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
     <row outlineLevel="0" r="102">
       <c r="A102" s="0" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="B102" s="0" t="inlineStr">
@@ -2497,19 +2497,19 @@
       </c>
       <c r="C102" s="0" t="inlineStr">
         <is>
-          <t>Liston</t>
+          <t>Hortensia</t>
         </is>
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>127</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="103">
       <c r="A103" s="0" t="inlineStr">
         <is>
-          <t>Santa Ana</t>
+          <t>San Miguel</t>
         </is>
       </c>
       <c r="B103" s="0" t="inlineStr">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="C103" s="0" t="inlineStr">
         <is>
-          <t>Hortensia</t>
+          <t>Liston</t>
         </is>
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
     <row outlineLevel="0" r="110">
       <c r="A110" s="0" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="B110" s="0" t="inlineStr">
@@ -2673,19 +2673,19 @@
       </c>
       <c r="C110" s="0" t="inlineStr">
         <is>
-          <t>Girasoles</t>
+          <t>Globos</t>
         </is>
       </c>
       <c r="D110" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>72</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="111">
       <c r="A111" s="0" t="inlineStr">
         <is>
-          <t>Santa Ana</t>
+          <t>San Miguel</t>
         </is>
       </c>
       <c r="B111" s="0" t="inlineStr">
@@ -2695,12 +2695,12 @@
       </c>
       <c r="C111" s="0" t="inlineStr">
         <is>
-          <t>Globos</t>
+          <t>Girasoles</t>
         </is>
       </c>
       <c r="D111" s="0" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
     <row outlineLevel="0" r="147">
       <c r="A147" s="0" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="B147" s="0" t="inlineStr">
@@ -3487,19 +3487,19 @@
       </c>
       <c r="C147" s="0" t="inlineStr">
         <is>
-          <t>Tarjetas</t>
+          <t>Rosas</t>
         </is>
       </c>
       <c r="D147" s="0" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>97</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="148">
       <c r="A148" s="0" t="inlineStr">
         <is>
-          <t>Santa Ana</t>
+          <t>San Miguel</t>
         </is>
       </c>
       <c r="B148" s="0" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="C148" s="0" t="inlineStr">
         <is>
-          <t>Rosas</t>
+          <t>Tarjetas</t>
         </is>
       </c>
       <c r="D148" s="0" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>74</t>
         </is>
       </c>
     </row>
